--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1"/>
@@ -594,6 +594,10 @@
   </si>
   <si>
     <t>后台管理下载用户KYC文件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロジット 开发记录表</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -606,7 +610,7 @@
     <numFmt numFmtId="177" formatCode="h&quot;时&quot;mm&quot;分&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,13 +639,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1049,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1651,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3500,7 +3497,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3515,7 +3512,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1107,7 +1107,9 @@
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8">
+        <v>35</v>
+      </c>
       <c r="F3" s="8">
         <v>20</v>
       </c>
@@ -1626,7 +1628,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2">
         <f>SUM(E3:E59)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1"/>
@@ -599,6 +599,28 @@
   <si>
     <t>ロジット 开发记录表</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>后台管理创建用户BTC钱包地址</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreatedSucceed</t>
+  </si>
+  <si>
+    <t>Created succeed</t>
+  </si>
+  <si>
+    <t>CreateWallet</t>
+  </si>
+  <si>
+    <t>Create wallet</t>
+  </si>
+  <si>
+    <t>CreateWalletConfirmMsg</t>
+  </si>
+  <si>
+    <t>Do you want to create user {0}'s wallet address?</t>
   </si>
 </sst>
 </file>
@@ -1028,14 +1050,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1046,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1651,7 +1698,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1783,12 +1830,24 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="3">
+        <v>42974</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8">
+        <v>20</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
@@ -2268,11 +2327,11 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2">
         <f>SUM(E3:E59)</f>
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -2290,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2360,12 +2419,24 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="3">
+        <v>42974</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <v>30</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
@@ -2872,11 +2943,11 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2">
         <f>SUM(E3:E59)</f>
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="G60" s="2"/>
     </row>

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1"/>
@@ -38,6 +38,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>计</t>
     </r>
@@ -50,6 +51,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -59,6 +61,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>（Start）</t>
     </r>
@@ -71,6 +74,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -80,6 +84,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>（End）</t>
     </r>
@@ -92,6 +97,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>备</t>
     </r>
@@ -101,6 +107,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>注</t>
     </r>
@@ -116,6 +123,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -125,6 +133,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -140,6 +149,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -149,6 +159,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -164,6 +175,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -173,6 +185,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -188,6 +201,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -197,6 +211,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -211,6 +226,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>户激活，给用户发激活邮件功能</t>
     </r>
@@ -226,6 +242,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -235,6 +252,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -249,6 +267,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>发资料整理</t>
     </r>
@@ -261,6 +280,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>实际</t>
     </r>
@@ -270,6 +290,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -279,6 +300,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>时</t>
     </r>
@@ -288,6 +310,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -297,6 +320,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -306,6 +330,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>）</t>
     </r>
@@ -318,6 +343,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>预计</t>
     </r>
@@ -327,6 +353,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -336,6 +363,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>时</t>
     </r>
@@ -345,6 +373,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>(分</t>
     </r>
@@ -354,6 +383,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -363,6 +393,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>)</t>
     </r>
@@ -382,6 +413,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -391,6 +423,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>时</t>
     </r>
@@ -400,6 +433,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -409,6 +443,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -418,6 +453,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>）</t>
     </r>
@@ -436,6 +472,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>认</t>
     </r>
@@ -461,6 +498,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -469,6 +507,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>用</t>
     </r>
@@ -477,6 +516,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>户</t>
     </r>
@@ -485,6 +525,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -493,6 +534,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -507,6 +549,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -526,6 +569,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>户</t>
     </r>
@@ -545,6 +589,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -643,24 +688,28 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -770,11 +819,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,15 +1187,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -1742,15 +1791,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2406,15 +2455,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3022,15 +3071,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3612,7 +3661,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D9" activeCellId="1" sqref="D6 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3626,15 +3675,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3690,7 +3739,7 @@
       <c r="C4" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="8"/>
@@ -3719,12 +3768,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="3">
+        <v>42977</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>150</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
@@ -4217,7 +4276,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>590</v>
+        <v>740</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -4250,15 +4309,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1"/>
@@ -38,7 +38,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>计</t>
     </r>
@@ -51,7 +50,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -61,7 +59,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>（Start）</t>
     </r>
@@ -74,7 +71,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -84,7 +80,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>（End）</t>
     </r>
@@ -97,7 +92,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>备</t>
     </r>
@@ -107,7 +101,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>注</t>
     </r>
@@ -123,7 +116,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -133,7 +125,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -149,7 +140,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -159,7 +149,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -175,7 +164,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -185,7 +173,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -201,7 +188,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -211,7 +197,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -226,7 +211,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>户激活，给用户发激活邮件功能</t>
     </r>
@@ -242,7 +226,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -252,7 +235,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -267,7 +249,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>发资料整理</t>
     </r>
@@ -280,7 +261,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>实际</t>
     </r>
@@ -290,7 +270,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -300,7 +279,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>时</t>
     </r>
@@ -310,7 +288,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -320,7 +297,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -330,7 +306,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>）</t>
     </r>
@@ -343,7 +318,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>预计</t>
     </r>
@@ -353,7 +327,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -363,7 +336,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>时</t>
     </r>
@@ -373,7 +345,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>(分</t>
     </r>
@@ -383,7 +354,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -393,7 +363,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>)</t>
     </r>
@@ -413,7 +382,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -423,7 +391,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>时</t>
     </r>
@@ -433,7 +400,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -443,7 +409,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -453,7 +418,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>）</t>
     </r>
@@ -472,7 +436,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>认</t>
     </r>
@@ -498,7 +461,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -507,7 +469,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>用</t>
     </r>
@@ -516,7 +477,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>户</t>
     </r>
@@ -525,7 +485,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -534,7 +493,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -549,7 +507,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -569,7 +526,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>户</t>
     </r>
@@ -589,7 +545,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -660,6 +615,23 @@
     <t>生産完成入力</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>开会 听客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户讲业务逻辑</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -688,28 +660,24 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -785,7 +753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,6 +792,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1242,12 +1213,22 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="13">
+        <v>42977</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>180</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
@@ -1758,7 +1739,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -3660,8 +3641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" activeCellId="1" sqref="D6 D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3787,12 +3768,20 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3">
+        <v>42977</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.78472222222222221</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>170</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
@@ -4276,7 +4265,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>740</v>
+        <v>910</v>
       </c>
       <c r="G60" s="2"/>
     </row>

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1"/>
@@ -629,6 +629,44 @@
         <scheme val="minor"/>
       </rPr>
       <t>户讲业务逻辑</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>英文版注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>页面日期 调整</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産完成入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录注册页面</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -790,11 +828,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1158,15 +1196,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -1213,7 +1251,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>42977</v>
       </c>
       <c r="B4" s="4">
@@ -1232,12 +1270,22 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="3">
+        <v>42981</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <v>310</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
@@ -1739,7 +1787,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>200</v>
+        <v>510</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -1772,15 +1820,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2422,7 +2470,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2436,15 +2484,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2515,7 +2563,9 @@
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="5"/>
@@ -3052,15 +3102,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3641,8 +3691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3656,15 +3706,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3759,7 +3809,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
@@ -3777,7 +3827,9 @@
       <c r="C7" s="4">
         <v>0.78472222222222221</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
         <v>170</v>
@@ -3785,21 +3837,41 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="3">
+        <v>42979</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>450</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="3">
+        <v>42982</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>510</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
@@ -4265,7 +4337,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>910</v>
+        <v>1870</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -4298,15 +4370,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="ロジット" sheetId="10" r:id="rId6"/>
     <sheet name="模板" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1"/>
@@ -38,6 +38,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>计</t>
     </r>
@@ -50,6 +51,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -59,6 +61,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>（Start）</t>
     </r>
@@ -71,6 +74,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -80,6 +84,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>（End）</t>
     </r>
@@ -92,6 +97,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>备</t>
     </r>
@@ -101,6 +107,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>注</t>
     </r>
@@ -116,6 +123,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -125,6 +133,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -140,6 +149,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -149,6 +159,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -164,6 +175,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -173,6 +185,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -188,6 +201,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -197,6 +211,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -211,6 +226,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>户激活，给用户发激活邮件功能</t>
     </r>
@@ -226,6 +242,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -235,6 +252,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -249,6 +267,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发资料整理</t>
     </r>
@@ -261,6 +280,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>实际</t>
     </r>
@@ -270,6 +290,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -279,6 +300,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -288,6 +310,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -297,6 +320,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -306,6 +330,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -318,6 +343,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>预计</t>
     </r>
@@ -327,6 +353,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -336,6 +363,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -345,6 +373,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>(分</t>
     </r>
@@ -354,6 +383,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -363,6 +393,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -382,6 +413,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -391,6 +423,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -400,6 +433,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -409,6 +443,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -418,6 +453,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -436,17 +472,16 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>认</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>UI模板</t>
     </r>
@@ -461,6 +496,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -469,6 +505,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>用</t>
     </r>
@@ -477,6 +514,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>户</t>
     </r>
@@ -485,6 +523,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -493,6 +532,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -507,17 +547,16 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>闭</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>用</t>
     </r>
@@ -526,17 +565,16 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>户</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -545,6 +583,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -587,22 +626,18 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>R的</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>说明</t>
     </r>
@@ -622,11 +657,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>户讲业务逻辑</t>
     </r>
@@ -639,11 +672,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>页面日期 调整</t>
     </r>
@@ -660,21 +691,27 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>录注册页面</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>积分调整修改</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>调查桌子的图</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="h&quot;时&quot;mm&quot;分&quot;;@"/>
@@ -684,62 +721,59 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -836,23 +870,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -894,7 +920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -926,10 +952,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,7 +986,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1137,7 +1161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1178,11 +1202,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1289,12 +1313,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="3">
+        <v>42982</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>50</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
@@ -1787,7 +1821,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -1802,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2466,11 +2500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2560,23 +2594,41 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="3">
+        <v>42982</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.38194444444444442</v>
+      </c>
       <c r="D5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <v>20</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="3">
+        <v>42982</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>20</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
@@ -3069,7 +3121,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -3084,7 +3136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3688,11 +3740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4352,7 +4404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
@@ -15,12 +15,12 @@
     <sheet name="ロジット" sheetId="10" r:id="rId6"/>
     <sheet name="模板" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1"/>
@@ -38,7 +38,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>计</t>
     </r>
@@ -51,7 +50,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -61,7 +59,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（Start）</t>
     </r>
@@ -74,7 +71,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -84,7 +80,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（End）</t>
     </r>
@@ -97,7 +92,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>备</t>
     </r>
@@ -107,7 +101,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>注</t>
     </r>
@@ -123,7 +116,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -133,7 +125,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -149,7 +140,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -159,7 +149,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -175,7 +164,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -185,7 +173,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -201,7 +188,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -211,7 +197,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -226,7 +211,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>户激活，给用户发激活邮件功能</t>
     </r>
@@ -242,7 +226,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -252,7 +235,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -267,7 +249,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发资料整理</t>
     </r>
@@ -280,7 +261,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>实际</t>
     </r>
@@ -290,7 +270,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -300,7 +279,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -310,7 +288,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -320,7 +297,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -330,7 +306,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -343,7 +318,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>预计</t>
     </r>
@@ -353,7 +327,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -363,7 +336,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -373,7 +345,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>(分</t>
     </r>
@@ -383,7 +354,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -393,7 +363,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -413,7 +382,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -423,7 +391,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -433,7 +400,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -443,7 +409,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -453,7 +418,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -472,7 +436,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>认</t>
     </r>
@@ -481,7 +444,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>UI模板</t>
     </r>
@@ -496,7 +458,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -505,7 +466,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>用</t>
     </r>
@@ -514,7 +474,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>户</t>
     </r>
@@ -523,7 +482,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -532,7 +490,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -547,7 +504,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -556,7 +512,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>用</t>
     </r>
@@ -565,7 +520,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>户</t>
     </r>
@@ -574,7 +528,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -583,7 +536,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -628,7 +580,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>R的</t>
     </r>
@@ -637,7 +588,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>说明</t>
     </r>
@@ -659,7 +609,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>户讲业务逻辑</t>
     </r>
@@ -674,7 +623,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>页面日期 调整</t>
     </r>
@@ -693,7 +641,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>录注册页面</t>
     </r>
@@ -707,73 +654,161 @@
     <t>调查桌子的图</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ser import.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>找回密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码，完成激活页面做成，桌子的表设计</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>整理分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>奖金逻辑</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>开桌p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ackage1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ackage page</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="h&quot;时&quot;mm&quot;分&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -825,7 +860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,20 +900,31 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -920,7 +966,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -952,9 +998,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -986,6 +1033,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1161,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1202,11 +1250,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1220,15 +1268,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -1332,39 +1380,79 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="3">
+        <v>42983</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>340</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="3">
+        <v>42983</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>90</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="3">
+        <v>42984</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>465</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="3">
+        <v>42985</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>470</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
@@ -1821,7 +1909,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>560</v>
+        <v>1925</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -1836,11 +1924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1854,15 +1942,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2014,12 +2102,22 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="3">
+        <v>42983</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>60</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
@@ -2485,7 +2583,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -2500,7 +2598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2518,15 +2616,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3136,7 +3234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3154,15 +3252,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3740,11 +3838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3758,15 +3856,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3927,12 +4025,22 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="3">
+        <v>42983</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>120</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
@@ -4389,7 +4497,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>1870</v>
+        <v>1990</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -4404,7 +4512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4422,15 +4530,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1"/>
@@ -38,6 +38,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>计</t>
     </r>
@@ -50,6 +51,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -59,6 +61,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>（Start）</t>
     </r>
@@ -71,6 +74,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -80,6 +84,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>（End）</t>
     </r>
@@ -92,6 +97,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>备</t>
     </r>
@@ -101,6 +107,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>注</t>
     </r>
@@ -116,6 +123,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -125,6 +133,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -140,6 +149,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -149,6 +159,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -164,6 +175,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -173,6 +185,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -188,6 +201,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -197,6 +211,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -211,6 +226,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>户激活，给用户发激活邮件功能</t>
     </r>
@@ -226,6 +242,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -235,6 +252,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -249,6 +267,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>发资料整理</t>
     </r>
@@ -261,6 +280,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>实际</t>
     </r>
@@ -270,6 +290,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -279,6 +300,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>时</t>
     </r>
@@ -288,6 +310,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -297,6 +320,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -306,6 +330,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>）</t>
     </r>
@@ -318,6 +343,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>预计</t>
     </r>
@@ -327,6 +353,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -336,6 +363,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>时</t>
     </r>
@@ -345,6 +373,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>(分</t>
     </r>
@@ -354,6 +383,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -363,6 +393,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>)</t>
     </r>
@@ -382,6 +413,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -391,6 +423,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>时</t>
     </r>
@@ -400,6 +433,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -409,6 +443,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -418,6 +453,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>）</t>
     </r>
@@ -436,6 +472,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>认</t>
     </r>
@@ -444,6 +481,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>UI模板</t>
     </r>
@@ -458,6 +496,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -466,6 +505,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>用</t>
     </r>
@@ -474,6 +514,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>户</t>
     </r>
@@ -482,6 +523,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -490,6 +532,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -504,6 +547,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -512,6 +556,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>用</t>
     </r>
@@ -520,6 +565,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>户</t>
     </r>
@@ -528,6 +574,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -536,6 +583,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -580,6 +628,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>R的</t>
     </r>
@@ -588,6 +637,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>说明</t>
     </r>
@@ -609,6 +659,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>户讲业务逻辑</t>
     </r>
@@ -623,6 +674,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>页面日期 调整</t>
     </r>
@@ -641,6 +693,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>录注册页面</t>
     </r>
@@ -736,6 +789,40 @@
         <scheme val="minor"/>
       </rPr>
       <t>ackage page</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">業務評価報告書 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dd nickname</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -760,39 +847,47 @@
     <font>
       <sz val="6"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1253,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1456,12 +1551,22 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="3">
+        <v>42988</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>70</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
@@ -1909,7 +2014,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>1925</v>
+        <v>1995</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -3237,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3307,28 +3412,54 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="3">
+        <v>42986</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>520</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="3">
+        <v>42989</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <v>540</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="3">
+        <v>42989</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.375</v>
+      </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="5"/>
@@ -3823,7 +3954,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>35</v>
+        <v>1095</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -3842,7 +3973,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4044,9 +4175,6 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1"/>
@@ -38,7 +38,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>计</t>
     </r>
@@ -51,7 +50,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -61,7 +59,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>（Start）</t>
     </r>
@@ -74,7 +71,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -84,7 +80,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>（End）</t>
     </r>
@@ -97,7 +92,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>备</t>
     </r>
@@ -107,7 +101,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>注</t>
     </r>
@@ -123,7 +116,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -133,7 +125,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -149,7 +140,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -159,7 +149,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -175,7 +164,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -185,7 +173,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -201,7 +188,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -211,7 +197,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -226,7 +211,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>户激活，给用户发激活邮件功能</t>
     </r>
@@ -242,7 +226,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -252,7 +235,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>表</t>
     </r>
@@ -267,7 +249,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>发资料整理</t>
     </r>
@@ -280,7 +261,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>实际</t>
     </r>
@@ -290,7 +270,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -300,7 +279,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>时</t>
     </r>
@@ -310,7 +288,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -320,7 +297,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -330,7 +306,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>）</t>
     </r>
@@ -343,7 +318,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>预计</t>
     </r>
@@ -353,7 +327,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -363,7 +336,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>时</t>
     </r>
@@ -373,7 +345,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>(分</t>
     </r>
@@ -383,7 +354,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -393,7 +363,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>)</t>
     </r>
@@ -413,7 +382,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -423,7 +391,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>时</t>
     </r>
@@ -433,7 +400,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -443,7 +409,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -453,7 +418,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>）</t>
     </r>
@@ -472,7 +436,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>认</t>
     </r>
@@ -481,7 +444,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>UI模板</t>
     </r>
@@ -496,7 +458,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -505,7 +466,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>用</t>
     </r>
@@ -514,7 +474,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>户</t>
     </r>
@@ -523,7 +482,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -532,7 +490,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -547,7 +504,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -556,7 +512,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>用</t>
     </r>
@@ -565,7 +520,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>户</t>
     </r>
@@ -574,7 +528,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -583,7 +536,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -628,7 +580,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>R的</t>
     </r>
@@ -637,7 +588,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>说明</t>
     </r>
@@ -659,7 +609,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>户讲业务逻辑</t>
     </r>
@@ -674,7 +623,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>页面日期 调整</t>
     </r>
@@ -693,7 +641,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>录注册页面</t>
     </r>
@@ -824,6 +771,14 @@
       </rPr>
       <t>dd nickname</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>测试哥哥修改的程序</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>open package.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -854,40 +809,34 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -955,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,6 +945,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1348,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1363,15 +1315,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -1570,12 +1522,22 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="3">
+        <v>42991</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>490</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
@@ -2014,7 +1976,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>1995</v>
+        <v>2485</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -2047,15 +2009,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2707,7 +2669,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2721,15 +2683,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2835,12 +2797,22 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="3">
+        <v>42990</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>45</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
@@ -3324,7 +3296,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -3342,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3357,15 +3329,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3456,12 +3428,16 @@
       <c r="B6" s="4">
         <v>0.375</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <v>0.77777777777777779</v>
+      </c>
       <c r="D6" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>520</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
@@ -3954,7 +3930,7 @@
       </c>
       <c r="F60" s="2">
         <f>SUM(F3:F59)</f>
-        <v>1095</v>
+        <v>1615</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -3987,15 +3963,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -4658,15 +4634,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
@@ -15,12 +15,12 @@
     <sheet name="ロジット" sheetId="10" r:id="rId6"/>
     <sheet name="模板" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1"/>
@@ -38,6 +38,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>计</t>
     </r>
@@ -50,6 +51,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -59,6 +61,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>（Start）</t>
     </r>
@@ -71,6 +74,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -80,6 +84,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>（End）</t>
     </r>
@@ -92,6 +97,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>备</t>
     </r>
@@ -101,6 +107,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>注</t>
     </r>
@@ -116,6 +123,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -125,6 +133,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -140,6 +149,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -149,6 +159,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -164,6 +175,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -173,6 +185,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -188,6 +201,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -197,6 +211,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -211,6 +226,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>户激活，给用户发激活邮件功能</t>
     </r>
@@ -226,6 +242,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -235,6 +252,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -249,6 +267,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发资料整理</t>
     </r>
@@ -261,6 +280,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>实际</t>
     </r>
@@ -270,6 +290,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -279,6 +300,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -288,6 +310,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -297,6 +320,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -306,6 +330,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -318,6 +343,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>预计</t>
     </r>
@@ -327,6 +353,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -336,6 +363,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -345,6 +373,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>(分</t>
     </r>
@@ -354,6 +383,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -363,6 +393,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -382,6 +413,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -391,6 +423,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -400,6 +433,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -409,6 +443,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -418,6 +453,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -436,6 +472,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>认</t>
     </r>
@@ -444,6 +481,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>UI模板</t>
     </r>
@@ -458,6 +496,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -466,6 +505,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>用</t>
     </r>
@@ -474,6 +514,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>户</t>
     </r>
@@ -482,6 +523,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -490,6 +532,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -504,6 +547,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -512,6 +556,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>用</t>
     </r>
@@ -520,6 +565,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>户</t>
     </r>
@@ -528,6 +574,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -536,6 +583,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -580,6 +628,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>R的</t>
     </r>
@@ -588,6 +637,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>说明</t>
     </r>
@@ -609,6 +659,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>户讲业务逻辑</t>
     </r>
@@ -623,6 +674,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>页面日期 调整</t>
     </r>
@@ -641,6 +693,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>录注册页面</t>
     </r>
@@ -661,11 +714,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>ser import.</t>
     </r>
@@ -678,11 +729,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>码，完成激活页面做成，桌子的表设计</t>
     </r>
@@ -695,11 +744,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>奖金逻辑</t>
     </r>
@@ -712,11 +759,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>ackage1</t>
     </r>
@@ -729,11 +774,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>ackage page</t>
     </r>
@@ -746,11 +789,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>test</t>
     </r>
@@ -763,11 +804,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>dd nickname</t>
     </r>
@@ -781,11 +820,31 @@
     <t>open package.</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>系统设定，积分历史，解冻batch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前台用户操作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bonus 计算，积分转移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出金，完桌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解冻check.</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="h&quot;时&quot;mm&quot;分&quot;;@"/>
@@ -795,64 +854,65 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -955,23 +1015,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1013,7 +1065,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1045,10 +1097,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1080,7 +1131,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1256,7 +1306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1297,11 +1347,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1541,48 +1591,98 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="3">
+        <v>43003</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>500</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="3">
+        <v>43004</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8">
+        <v>520</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="3">
+        <v>43005</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8">
+        <v>500</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="3">
+        <v>43006</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8">
+        <v>490</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="3">
+        <v>43006</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.9375</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8">
+        <v>140</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
@@ -1963,22 +2063,40 @@
       <c r="F59" s="8"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2">
-        <f>SUM(E3:E59)</f>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2">
+        <f>SUM(E3:E61)</f>
         <v>35</v>
       </c>
-      <c r="F60" s="2">
-        <f>SUM(F3:F59)</f>
-        <v>2485</v>
-      </c>
-      <c r="G60" s="2"/>
+      <c r="F62" s="2">
+        <f>SUM(F3:F61)</f>
+        <v>4635</v>
+      </c>
+      <c r="G62" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1991,7 +2109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2665,7 +2783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3311,7 +3429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3945,7 +4063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4616,7 +4734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
@@ -15,12 +15,12 @@
     <sheet name="ロジット" sheetId="10" r:id="rId6"/>
     <sheet name="模板" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1"/>
@@ -38,7 +38,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>计</t>
     </r>
@@ -51,7 +50,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -61,7 +59,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（Start）</t>
     </r>
@@ -74,7 +71,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -84,7 +80,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（End）</t>
     </r>
@@ -97,7 +92,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>备</t>
     </r>
@@ -107,7 +101,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>注</t>
     </r>
@@ -123,7 +116,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -133,7 +125,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -149,7 +140,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -159,7 +149,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -175,7 +164,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -185,7 +173,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -201,7 +188,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -211,7 +197,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -226,7 +211,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>户激活，给用户发激活邮件功能</t>
     </r>
@@ -242,7 +226,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -252,7 +235,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -267,7 +249,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发资料整理</t>
     </r>
@@ -280,7 +261,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>实际</t>
     </r>
@@ -290,7 +270,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -300,7 +279,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -310,7 +288,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -320,7 +297,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -330,7 +306,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -343,7 +318,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>预计</t>
     </r>
@@ -353,7 +327,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -363,7 +336,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -373,7 +345,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>(分</t>
     </r>
@@ -383,7 +354,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -393,7 +363,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -413,7 +382,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -423,7 +391,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -433,7 +400,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -443,7 +409,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -453,7 +418,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -472,7 +436,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>认</t>
     </r>
@@ -481,7 +444,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>UI模板</t>
     </r>
@@ -496,7 +458,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -505,7 +466,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>用</t>
     </r>
@@ -514,7 +474,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>户</t>
     </r>
@@ -523,7 +482,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -532,7 +490,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -547,7 +504,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -556,7 +512,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>用</t>
     </r>
@@ -565,7 +520,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>户</t>
     </r>
@@ -574,7 +528,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -583,7 +536,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -628,7 +580,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>R的</t>
     </r>
@@ -637,7 +588,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>说明</t>
     </r>
@@ -659,7 +609,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>户讲业务逻辑</t>
     </r>
@@ -674,7 +623,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>页面日期 调整</t>
     </r>
@@ -693,7 +641,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>录注册页面</t>
     </r>
@@ -716,7 +663,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>ser import.</t>
     </r>
@@ -731,7 +677,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>码，完成激活页面做成，桌子的表设计</t>
     </r>
@@ -746,7 +691,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>奖金逻辑</t>
     </r>
@@ -761,7 +705,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>ackage1</t>
     </r>
@@ -776,7 +719,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>ackage page</t>
     </r>
@@ -791,7 +733,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>test</t>
     </r>
@@ -806,7 +747,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>dd nickname</t>
     </r>
@@ -840,79 +780,95 @@
     <t>解冻check.</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ystem setting ,admin home page.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="h&quot;时&quot;mm&quot;分&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -964,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,17 +969,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1065,7 +1032,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1097,9 +1064,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1131,6 +1099,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1306,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1347,11 +1316,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1686,12 +1655,22 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="3">
+        <v>43007</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8">
+        <v>470</v>
+      </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
@@ -2094,7 +2073,7 @@
       </c>
       <c r="F62" s="2">
         <f>SUM(F3:F61)</f>
-        <v>4635</v>
+        <v>5105</v>
       </c>
       <c r="G62" s="2"/>
     </row>
@@ -2109,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2783,7 +2762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3429,7 +3408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4063,7 +4042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4734,7 +4713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
@@ -15,12 +15,12 @@
     <sheet name="ロジット" sheetId="10" r:id="rId6"/>
     <sheet name="模板" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1"/>
@@ -38,6 +38,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>计</t>
     </r>
@@ -50,6 +51,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -59,6 +61,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>（Start）</t>
     </r>
@@ -71,6 +74,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -80,6 +84,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>（End）</t>
     </r>
@@ -92,6 +97,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>备</t>
     </r>
@@ -101,6 +107,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>注</t>
     </r>
@@ -116,6 +123,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -125,6 +133,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -140,6 +149,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -149,6 +159,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -164,6 +175,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -173,6 +185,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -188,6 +201,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -197,6 +211,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -211,6 +226,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>户激活，给用户发激活邮件功能</t>
     </r>
@@ -226,6 +242,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -235,6 +252,7 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -249,6 +267,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>发资料整理</t>
     </r>
@@ -261,6 +280,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>实际</t>
     </r>
@@ -270,6 +290,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -279,6 +300,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -288,6 +310,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -297,6 +320,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -306,6 +330,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -318,6 +343,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>预计</t>
     </r>
@@ -327,6 +353,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -336,6 +363,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -345,6 +373,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>(分</t>
     </r>
@@ -354,6 +383,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -363,6 +393,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -382,6 +413,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -391,6 +423,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -400,6 +433,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -409,6 +443,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -418,6 +453,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -436,6 +472,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>认</t>
     </r>
@@ -444,6 +481,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>UI模板</t>
     </r>
@@ -458,6 +496,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -466,6 +505,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>用</t>
     </r>
@@ -474,6 +514,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>户</t>
     </r>
@@ -482,6 +523,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -490,6 +532,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -504,6 +547,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -512,6 +556,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>用</t>
     </r>
@@ -520,6 +565,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>户</t>
     </r>
@@ -528,6 +574,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -536,6 +583,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -580,6 +628,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>R的</t>
     </r>
@@ -588,6 +637,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>说明</t>
     </r>
@@ -609,6 +659,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>户讲业务逻辑</t>
     </r>
@@ -623,6 +674,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>页面日期 调整</t>
     </r>
@@ -641,6 +693,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>录注册页面</t>
     </r>
@@ -663,6 +716,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>ser import.</t>
     </r>
@@ -677,6 +731,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>码，完成激活页面做成，桌子的表设计</t>
     </r>
@@ -691,6 +746,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>奖金逻辑</t>
     </r>
@@ -705,6 +761,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>ackage1</t>
     </r>
@@ -719,6 +776,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>ackage page</t>
     </r>
@@ -733,6 +791,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>test</t>
     </r>
@@ -747,6 +806,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>dd nickname</t>
     </r>
@@ -787,21 +847,35 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>ystem setting ,admin home page.</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unfreeze</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>package list user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>under line list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fix bug</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="h&quot;时&quot;mm&quot;分&quot;;@"/>
@@ -811,64 +885,71 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -966,31 +1047,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1032,7 +1105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1064,10 +1137,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1099,7 +1171,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1275,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1316,11 +1387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1334,15 +1405,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -1664,7 +1735,7 @@
       <c r="C18" s="4">
         <v>0.75</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="8"/>
@@ -1674,39 +1745,79 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="3">
+        <v>43008</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8">
+        <v>120</v>
+      </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="3">
+        <v>43008</v>
+      </c>
+      <c r="B20" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8">
+        <v>180</v>
+      </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="3">
+        <v>43008</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8">
+        <v>270</v>
+      </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="3">
+        <v>43009</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8">
+        <v>150</v>
+      </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7">
@@ -2073,7 +2184,7 @@
       </c>
       <c r="F62" s="2">
         <f>SUM(F3:F61)</f>
-        <v>5105</v>
+        <v>5825</v>
       </c>
       <c r="G62" s="2"/>
     </row>
@@ -2088,7 +2199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2106,15 +2217,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2762,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2780,15 +2891,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3408,7 +3519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3426,15 +3537,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -4042,7 +4153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4060,15 +4171,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -4713,7 +4824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4731,15 +4842,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1821,21 +1821,37 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="3">
+        <v>43017</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.76388888888888884</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8">
+        <v>490</v>
+      </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="3">
+        <v>43017</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8">
+        <v>140</v>
+      </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7">
@@ -2184,7 +2200,7 @@
       </c>
       <c r="F62" s="2">
         <f>SUM(F3:F61)</f>
-        <v>5825</v>
+        <v>6455</v>
       </c>
       <c r="G62" s="2"/>
     </row>

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -1855,21 +1855,37 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="3">
+        <v>43018</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8">
+        <v>370</v>
+      </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="3">
+        <v>43018</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8">
+        <v>210</v>
+      </c>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7">
@@ -2200,7 +2216,7 @@
       </c>
       <c r="F62" s="2">
         <f>SUM(F3:F61)</f>
-        <v>6455</v>
+        <v>7035</v>
       </c>
       <c r="G62" s="2"/>
     </row>

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1889,30 +1889,54 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="3">
+        <v>43019</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.75</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8">
+        <v>480</v>
+      </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="3">
+        <v>43020</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.75</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8">
+        <v>480</v>
+      </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="3">
+        <v>43021</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="8">
+        <v>420</v>
+      </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7">
@@ -2216,7 +2240,7 @@
       </c>
       <c r="F62" s="2">
         <f>SUM(F3:F61)</f>
-        <v>7035</v>
+        <v>8415</v>
       </c>
       <c r="G62" s="2"/>
     </row>

--- a/个人工作记录表.xlsx
+++ b/个人工作记录表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
@@ -15,7 +15,7 @@
     <sheet name="ロジット" sheetId="10" r:id="rId6"/>
     <sheet name="模板" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -38,7 +38,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>计</t>
     </r>
@@ -51,7 +50,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -61,7 +59,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（Start）</t>
     </r>
@@ -74,7 +71,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -84,7 +80,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（End）</t>
     </r>
@@ -97,7 +92,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>备</t>
     </r>
@@ -107,7 +101,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>注</t>
     </r>
@@ -123,7 +116,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -133,7 +125,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -149,7 +140,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -159,7 +149,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -175,7 +164,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -185,7 +173,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -201,7 +188,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -211,7 +197,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -226,7 +211,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>户激活，给用户发激活邮件功能</t>
     </r>
@@ -242,7 +226,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发记录</t>
     </r>
@@ -252,7 +235,6 @@
         <sz val="24"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>表</t>
     </r>
@@ -267,7 +249,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>发资料整理</t>
     </r>
@@ -280,7 +261,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>实际</t>
     </r>
@@ -290,7 +270,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -300,7 +279,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -310,7 +288,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -320,7 +297,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -330,7 +306,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -343,7 +318,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>预计</t>
     </r>
@@ -353,7 +327,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -363,7 +336,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -373,7 +345,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>(分</t>
     </r>
@@ -383,7 +354,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -393,7 +363,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -413,7 +382,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>耗</t>
     </r>
@@ -423,7 +391,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -433,7 +400,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（分</t>
     </r>
@@ -443,7 +409,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>钟</t>
     </r>
@@ -453,7 +418,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -472,7 +436,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>认</t>
     </r>
@@ -481,7 +444,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>UI模板</t>
     </r>
@@ -496,7 +458,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -505,7 +466,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>用</t>
     </r>
@@ -514,7 +474,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>户</t>
     </r>
@@ -523,7 +482,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -532,7 +490,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -547,7 +504,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>闭</t>
     </r>
@@ -556,7 +512,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>用</t>
     </r>
@@ -565,7 +520,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>户</t>
     </r>
@@ -574,7 +528,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>的二段</t>
     </r>
@@ -583,7 +536,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>认证</t>
     </r>
@@ -628,7 +580,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>R的</t>
     </r>
@@ -637,7 +588,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>说明</t>
     </r>
@@ -659,7 +609,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>户讲业务逻辑</t>
     </r>
@@ -674,7 +623,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>页面日期 调整</t>
     </r>
@@ -693,7 +641,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>录注册页面</t>
     </r>
@@ -716,7 +663,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>ser import.</t>
     </r>
@@ -731,7 +677,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>码，完成激活页面做成，桌子的表设计</t>
     </r>
@@ -746,7 +691,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>奖金逻辑</t>
     </r>
@@ -761,7 +705,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>ackage1</t>
     </r>
@@ -776,7 +719,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>ackage page</t>
     </r>
@@ -791,7 +733,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>test</t>
     </r>
@@ -806,7 +747,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>dd nickname</t>
     </r>
@@ -849,7 +789,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>ystem setting ,admin home page.</t>
     </r>
@@ -875,7 +814,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="h&quot;时&quot;mm&quot;分&quot;;@"/>
@@ -885,71 +824,61 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1055,15 +984,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1105,7 +1042,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1137,9 +1074,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,6 +1109,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1346,7 +1285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1387,11 +1326,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1940,12 +1879,20 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="3">
+        <v>43024</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D30" s="5"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="8">
+        <v>445</v>
+      </c>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
@@ -2240,7 +2187,7 @@
       </c>
       <c r="F62" s="2">
         <f>SUM(F3:F61)</f>
-        <v>8415</v>
+        <v>8860</v>
       </c>
       <c r="G62" s="2"/>
     </row>
@@ -2255,7 +2202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2929,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,7 +3522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4209,7 +4156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4880,7 +4827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
